--- a/Category/ingredient.xlsx
+++ b/Category/ingredient.xlsx
@@ -481,11 +481,7 @@
           <t>Garlic</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dried bulb</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
@@ -508,19 +504,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shrimp paste</t>
+          <t>Shrimp paste first class quality</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fermented (Ka-pi)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>first class quality</t>
-        </is>
-      </c>
+          <t>Ka-pi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Umami</t>
@@ -538,19 +530,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shrimp paste</t>
+          <t>Shrimp paste second class quality</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fermented (Ka-pi)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>second class quality</t>
-        </is>
-      </c>
+          <t>Ka-pi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Umami</t>
@@ -568,14 +556,10 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turmeric</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
+          <t>White Turmeric</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
@@ -602,14 +586,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turmeric</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>curcum</t>
-        </is>
-      </c>
+          <t>Curcum Turmeric</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -689,7 +669,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>matsaman</t>
+          <t>Matsaman</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -754,7 +734,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Budu</t>
+          <t>Salted budu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -762,11 +742,7 @@
           <t>fish sauce</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>salted</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>Savory</t>
@@ -784,7 +760,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Budu</t>
+          <t>Sweetened budu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -792,11 +768,7 @@
           <t>fish sauce</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sweetened</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>Sweet</t>
@@ -814,14 +786,10 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bay leaves</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>dried</t>
-        </is>
-      </c>
+          <t>Dried bay leaves</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
@@ -836,14 +804,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Curry</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>powder</t>
-        </is>
-      </c>
+          <t>Curry powder</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
@@ -866,14 +830,10 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Coriander</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>roots</t>
-        </is>
-      </c>
+          <t>Coriander roots</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
@@ -892,19 +852,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coriander</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>seeds</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>dried</t>
-        </is>
-      </c>
+          <t>Dried coriander seeds</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>Citrusy</t>
@@ -918,14 +870,10 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chili pepper</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>dried</t>
-        </is>
-      </c>
+          <t>Dried chili pepper</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
@@ -940,19 +888,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pepper</t>
+          <t>Dried pepper</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>dried</t>
-        </is>
-      </c>
+          <t>Goat pepper</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -962,14 +906,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pepper</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
+          <t>White pepper</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
@@ -988,14 +928,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pepper</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
+          <t>Black pepper</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
@@ -1040,14 +976,10 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Leech lime</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>juice</t>
-        </is>
-      </c>
+          <t>Leech lime juice</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
@@ -1066,14 +998,10 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leech lime</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>leaves</t>
-        </is>
-      </c>
+          <t>Leech lime leaves</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
@@ -1088,14 +1016,10 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Leech lime</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>peels</t>
-        </is>
-      </c>
+          <t>Leech lime peels</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
@@ -1140,14 +1064,10 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cumin</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>seeds</t>
-        </is>
-      </c>
+          <t>Cumin seeds</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
@@ -1166,14 +1086,10 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kitchen mint</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>leaves</t>
-        </is>
-      </c>
+          <t>Kitchen mint leaves</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1184,14 +1100,10 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shallot</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>bulbs</t>
-        </is>
-      </c>
+          <t>Shallot bulbs</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
@@ -1222,14 +1134,10 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sweet basil</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>leaves</t>
-        </is>
-      </c>
+          <t>Sweet basil leaves</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
